--- a/testData/accapproval_test_data.xlsx
+++ b/testData/accapproval_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="add_access_approvel" sheetId="3" r:id="rId1"/>
@@ -17,14 +17,13 @@
     <sheet name="apply_history" sheetId="11" r:id="rId8"/>
     <sheet name="personal_history" sheetId="12" r:id="rId9"/>
     <sheet name="all_history" sheetId="13" r:id="rId10"/>
-    <sheet name="department_history" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="113">
   <si>
     <t>添加一级访问审批</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -62,15 +61,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>用户xx发送访问审批成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>root</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户xx发送紧急运维成功</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -134,10 +125,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>xx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>流程任务查询已办流程</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -187,23 +174,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>个人历史查询未通过流程</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -217,14 +187,6 @@
   </si>
   <si>
     <t>全部历史查询已通过流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门历史查询未通过流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门历史查询已通过流程</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -300,10 +262,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>test_F09_S33_search_011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>test_F04_S04_accessApproval_add_001</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -357,10 +315,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>test_F09_S33_search_011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cyyt cyyu</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -373,14 +327,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2 cyyt 1 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cyyu 1 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>用户cyyt拒绝审批</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -389,20 +335,12 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2 cyyv 1 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>一级审批人拒绝审批所以cyyv没有收到审批消息</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>一级审批人拒绝审批所以cyyw没有收到审批消息</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cyyw 1 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>审批拒绝cyyt</t>
@@ -461,19 +399,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2 cyyu 1 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.155</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cyyt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cyyu 1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -484,12 +414,97 @@
     <t>cyydb</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>用户cyyx发送紧急运维成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyx发送访问审批成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyx</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录方式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yyx</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cyyt qawsed@123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cyyu qawsed@123 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cyyv qawsed@123 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cyyw qawsed@123 </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cyyt qawsed@123 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cyyw qawsed@123</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cyyx qawsed@123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cyyu qawsed@123 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 secAdmin secAdmin@123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cyyu qawsed@123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,6 +585,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -645,12 +668,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,9 +756,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1026,7 +1057,7 @@
   <dimension ref="A1:XED4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1043,25 +1074,25 @@
   <sheetData>
     <row r="1" spans="1:16358" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:16358">
@@ -1076,13 +1107,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:16358">
@@ -1095,13 +1126,13 @@
         <v>2</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -17474,14 +17505,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="6" max="6" width="16.75" customWidth="1"/>
     <col min="8" max="8" width="14.375" customWidth="1"/>
@@ -17491,66 +17522,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25">
       <c r="A2" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3">
         <v>155</v>
@@ -17568,22 +17599,22 @@
         <v>7</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
@@ -17592,7 +17623,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -17607,153 +17638,7 @@
         <v>7</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="14.25">
-      <c r="A2" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3">
-        <v>155</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="14.25">
-      <c r="A3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="14">
-        <v>2018</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -17764,10 +17649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17781,57 +17666,66 @@
     <col min="8" max="8" width="23.875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="23.125" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="36.75" customWidth="1"/>
+    <col min="11" max="14" width="19.5" customWidth="1"/>
+    <col min="15" max="15" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="18.75">
+    <row r="1" spans="1:15" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="I1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>60</v>
-      </c>
       <c r="L1" s="17" t="s">
-        <v>50</v>
+        <v>98</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="14.25">
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -17855,14 +17749,26 @@
       <c r="K2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>65</v>
+      <c r="L2" s="16">
+        <v>2</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17871,7 +17777,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17885,61 +17791,61 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C2" s="20">
         <v>2</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C3" s="20">
         <v>2</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>6</v>
@@ -17948,15 +17854,15 @@
         <v>7</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>6</v>
@@ -17965,7 +17871,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -17979,7 +17885,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17992,44 +17898,44 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>8</v>
@@ -18038,41 +17944,41 @@
         <v>7</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C5" s="16">
         <v>1</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -18083,10 +17989,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18096,59 +18002,83 @@
     <col min="4" max="4" width="23.75" customWidth="1"/>
     <col min="5" max="5" width="45.125" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="32.375" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="18.75">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="G1" s="17" t="s">
-        <v>50</v>
+        <v>98</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" ht="14.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="16">
+        <v>2</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18157,7 +18087,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18170,44 +18100,44 @@
   <sheetData>
     <row r="1" spans="1:5" s="5" customFormat="1" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C2" s="20">
         <v>1</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>7</v>
@@ -18216,32 +18146,32 @@
         <v>7</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C4" s="16">
         <v>1</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>7</v>
@@ -18250,7 +18180,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -18264,13 +18194,13 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="8.625" customWidth="1"/>
     <col min="5" max="5" width="11.125" customWidth="1"/>
@@ -18282,54 +18212,54 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="K1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="L1" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>7</v>
@@ -18347,25 +18277,25 @@
         <v>2018</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.25">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>7</v>
@@ -18377,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I3" s="3">
         <v>2018</v>
@@ -18389,7 +18319,7 @@
         <v>7</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -18401,10 +18331,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18413,56 +18343,60 @@
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="10" max="10" width="25.125" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:11" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="J1" s="17" t="s">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.25">
+    <row r="2" spans="1:11" ht="14.25">
       <c r="A2" s="14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3">
         <v>155</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" s="25">
         <v>1</v>
@@ -18471,27 +18405,30 @@
         <v>2018</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>74</v>
+      <c r="J2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.25">
+    <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>7</v>
@@ -18508,8 +18445,9 @@
       <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>74</v>
+      <c r="J3" s="16"/>
+      <c r="K3" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -18523,13 +18461,13 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="11.875" customWidth="1"/>
@@ -18542,66 +18480,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="H1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="J1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="L1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.25">
       <c r="A2" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3">
         <v>155</v>
@@ -18619,22 +18557,22 @@
         <v>7</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25">
       <c r="A3" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
@@ -18643,7 +18581,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -18658,7 +18596,7 @@
         <v>7</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
